--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7726,6 +7726,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>36.5684</v>
+      </c>
+      <c r="D292" t="n">
+        <v>36.5685</v>
+      </c>
+      <c r="E292" t="n">
+        <v>36.5681</v>
+      </c>
+      <c r="F292" t="n">
+        <v>36.5681</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>36.5681</v>
+      </c>
+      <c r="D293" t="n">
+        <v>36.5681</v>
+      </c>
+      <c r="E293" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="F293" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="D294" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="E294" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="F294" t="n">
+        <v>36.565</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -7792,10 +7792,10 @@
         <v>36.565</v>
       </c>
       <c r="E294" t="n">
-        <v>36.565</v>
+        <v>36.564</v>
       </c>
       <c r="F294" t="n">
-        <v>36.565</v>
+        <v>36.564</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7792,12 +7792,37 @@
         <v>36.565</v>
       </c>
       <c r="E294" t="n">
-        <v>36.564</v>
+        <v>36.562</v>
       </c>
       <c r="F294" t="n">
-        <v>36.564</v>
+        <v>36.562</v>
       </c>
       <c r="G294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>36.562</v>
+      </c>
+      <c r="D295" t="n">
+        <v>36.562</v>
+      </c>
+      <c r="E295" t="n">
+        <v>36.562</v>
+      </c>
+      <c r="F295" t="n">
+        <v>36.562</v>
+      </c>
+      <c r="G295" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7817,10 +7817,10 @@
         <v>36.562</v>
       </c>
       <c r="E295" t="n">
-        <v>36.562</v>
+        <v>36.56</v>
       </c>
       <c r="F295" t="n">
-        <v>36.562</v>
+        <v>36.56</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7814,15 +7814,90 @@
         <v>36.562</v>
       </c>
       <c r="D295" t="n">
-        <v>36.562</v>
+        <v>36.891</v>
       </c>
       <c r="E295" t="n">
         <v>36.56</v>
       </c>
       <c r="F295" t="n">
-        <v>36.56</v>
+        <v>36.57</v>
       </c>
       <c r="G295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="D296" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E296" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="F296" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="D297" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E297" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="F297" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDUAH</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="D298" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E298" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="F298" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="G298" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Ukraine_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7261,6 +7261,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>36.57</v>
+      </c>
+      <c r="D299">
+        <v>36.57</v>
+      </c>
+      <c r="E299">
+        <v>36.57</v>
+      </c>
+      <c r="F299">
+        <v>36.57</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
